--- a/zakresy(freq;temp).xlsx
+++ b/zakresy(freq;temp).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michu\Documents\Studia\kolo\pomiary_lakeshore_hioki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ECEDEB2-3EA5-4AC7-B505-0AF9E5C1B65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9863BA66-190E-483F-A9F7-3EB975230B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{A03D88A7-543A-4A17-B30F-066497A72902}"/>
   </bookViews>
@@ -403,255 +403,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E2F69B-AD12-440C-A0B5-0080E284C154}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B1" sqref="B1:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1900</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2800</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3700</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4600</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5500</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6400</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7300</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8200</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9100</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10000</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10900</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>794</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>11800</v>
+        <v>49</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>12700</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>13600</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>14500</v>
+        <v>58</v>
       </c>
       <c r="B17">
-        <v>90</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>15400</v>
+        <v>61</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>16300</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>17200</v>
+        <v>67</v>
       </c>
       <c r="B20">
-        <v>105</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>18100</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>19000</v>
+        <v>73</v>
       </c>
       <c r="B22">
-        <v>115</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19900</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20800</v>
+        <v>79</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21700</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22600</v>
+        <v>85</v>
       </c>
       <c r="B26">
-        <v>135</v>
+        <v>15850</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23500</v>
+        <v>88</v>
       </c>
       <c r="B27">
-        <v>140</v>
+        <v>19950</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24400</v>
+        <v>91</v>
       </c>
       <c r="B28">
-        <v>145</v>
+        <v>25120</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>25300</v>
+        <v>94</v>
       </c>
       <c r="B29">
-        <v>150</v>
+        <v>31620</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26200</v>
+        <v>97</v>
       </c>
       <c r="B30">
-        <v>155</v>
+        <v>39810</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>50120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <v>63100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>106</v>
+      </c>
+      <c r="B33">
+        <v>79430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>109</v>
+      </c>
+      <c r="B34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>112</v>
+      </c>
+      <c r="B35">
+        <v>125900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>158500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>118</v>
+      </c>
+      <c r="B37">
+        <v>199500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>121</v>
+      </c>
+      <c r="B38">
+        <v>251200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>124</v>
+      </c>
+      <c r="B39">
+        <v>316200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>127</v>
+      </c>
+      <c r="B40">
+        <v>398100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>130</v>
+      </c>
+      <c r="B41">
+        <v>501200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>133</v>
+      </c>
+      <c r="B42">
+        <v>631000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>136</v>
+      </c>
+      <c r="B43">
+        <v>794300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>139</v>
+      </c>
+      <c r="B44">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>142</v>
+      </c>
+      <c r="B45">
+        <v>1259000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>145</v>
+      </c>
+      <c r="B46">
+        <v>1585000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>148</v>
+      </c>
+      <c r="B47">
+        <v>1995000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>151</v>
+      </c>
+      <c r="B48">
+        <v>2512000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>158</v>
+      </c>
+      <c r="B49">
+        <v>3162000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>165</v>
+      </c>
+      <c r="B50">
+        <v>3981000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>172</v>
+      </c>
+      <c r="B51">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B51">
+    <sortCondition ref="B1:B51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>